--- a/xlsx/聖克里斯多福及尼維斯_intext.xlsx
+++ b/xlsx/聖克里斯多福及尼維斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>聖克里斯多福與尼維斯國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_聖克里斯多福及尼維斯</t>
+    <t>体育运动_体育运动_南非_聖克里斯多福及尼維斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF%E5%9C%8B%E5%BE%BD</t>
